--- a/cw icassp2015/cw_icassp2015exp.xlsx
+++ b/cw icassp2015/cw_icassp2015exp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="25600" yWindow="6860" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="73">
   <si>
     <t>Precision</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -304,6 +304,10 @@
   </si>
   <si>
     <t>Total</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average of DR1 + DR3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1758,10 +1762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I227"/>
+  <dimension ref="A1:I233"/>
   <sheetViews>
-    <sheetView topLeftCell="A223" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G198" sqref="G198"/>
+    <sheetView tabSelected="1" topLeftCell="A219" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F231" sqref="F231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1818,16 +1822,9 @@
       <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="9">
-        <v>0.49159999999999998</v>
-      </c>
-      <c r="G2" s="9">
-        <v>0.70340000000000003</v>
-      </c>
-      <c r="H2" s="11">
-        <f>2*F2*G2/(F2+G2)</f>
-        <v>0.57873044351464431</v>
-      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="12"/>
@@ -1837,16 +1834,9 @@
       <c r="E3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="13">
-        <v>0.69040000000000001</v>
-      </c>
-      <c r="G3" s="13">
-        <v>0.77110000000000001</v>
-      </c>
-      <c r="H3" s="15">
-        <f t="shared" ref="H3:H25" si="0">2*F3*G3/(F3+G3)</f>
-        <v>0.72852198426274373</v>
-      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="12"/>
@@ -1856,16 +1846,9 @@
       <c r="E4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="13">
-        <v>0.49640000000000001</v>
-      </c>
-      <c r="G4" s="13">
-        <v>0.41720000000000002</v>
-      </c>
-      <c r="H4" s="15">
-        <f t="shared" si="0"/>
-        <v>0.45336707530647991</v>
-      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="15"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="12"/>
@@ -1881,16 +1864,9 @@
       <c r="E5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="13">
-        <v>0.55620000000000003</v>
-      </c>
-      <c r="G5" s="13">
-        <v>0.72589999999999999</v>
-      </c>
-      <c r="H5" s="15">
-        <f>2*F5*G5/(F5+G5)</f>
-        <v>0.6298191716714765</v>
-      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="15"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="12"/>
@@ -1900,16 +1876,9 @@
       <c r="E6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="13">
-        <v>0.70330000000000004</v>
-      </c>
-      <c r="G6" s="13">
-        <v>0.77959999999999996</v>
-      </c>
-      <c r="H6" s="15">
-        <f t="shared" si="0"/>
-        <v>0.73948705914087265</v>
-      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="12"/>
@@ -1919,16 +1888,9 @@
       <c r="E7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="13">
-        <v>0.62329999999999997</v>
-      </c>
-      <c r="G7" s="13">
-        <v>0.51139999999999997</v>
-      </c>
-      <c r="H7" s="15">
-        <f t="shared" si="0"/>
-        <v>0.56183241385388194</v>
-      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="12"/>
@@ -1944,16 +1906,9 @@
       <c r="E8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="13">
-        <v>0.58909999999999996</v>
-      </c>
-      <c r="G8" s="13">
-        <v>0.70899999999999996</v>
-      </c>
-      <c r="H8" s="15">
-        <f t="shared" si="0"/>
-        <v>0.64351267236730603</v>
-      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="12"/>
@@ -1963,16 +1918,9 @@
       <c r="E9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="13">
-        <v>0.93710000000000004</v>
-      </c>
-      <c r="G9" s="13">
-        <v>0.90469999999999995</v>
-      </c>
-      <c r="H9" s="15">
-        <f t="shared" si="0"/>
-        <v>0.92061501791725486</v>
-      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="12"/>
@@ -1982,16 +1930,9 @@
       <c r="E10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="13">
-        <v>0.85189999999999999</v>
-      </c>
-      <c r="G10" s="13">
-        <v>0.4219</v>
-      </c>
-      <c r="H10" s="15">
-        <f t="shared" si="0"/>
-        <v>0.56432188726644683</v>
-      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="12"/>
@@ -2007,16 +1948,9 @@
       <c r="E11" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="13">
-        <v>0.6361</v>
-      </c>
-      <c r="G11" s="13">
-        <v>0.71540000000000004</v>
-      </c>
-      <c r="H11" s="15">
-        <f t="shared" si="0"/>
-        <v>0.67342351461339245</v>
-      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="15"/>
       <c r="I11" t="s">
         <v>28</v>
       </c>
@@ -2029,16 +1963,9 @@
       <c r="E12" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="13">
-        <v>0.94579999999999997</v>
-      </c>
-      <c r="G12" s="13">
-        <v>0.89349999999999996</v>
-      </c>
-      <c r="H12" s="15">
-        <f t="shared" si="0"/>
-        <v>0.91890643179470444</v>
-      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="16"/>
@@ -2048,16 +1975,9 @@
       <c r="E13" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="17">
-        <v>0.88429999999999997</v>
-      </c>
-      <c r="G13" s="17">
-        <v>0.51500000000000001</v>
-      </c>
-      <c r="H13" s="19">
-        <f t="shared" si="0"/>
-        <v>0.65091760165797186</v>
-      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="19"/>
       <c r="I13" t="s">
         <v>29</v>
       </c>
@@ -2078,16 +1998,9 @@
       <c r="E14" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="9">
-        <v>0.58479999999999999</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0.61619999999999997</v>
-      </c>
-      <c r="H14" s="11">
-        <f t="shared" si="0"/>
-        <v>0.60008952539550364</v>
-      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="11"/>
       <c r="I14" t="s">
         <v>32</v>
       </c>
@@ -2100,16 +2013,9 @@
       <c r="E15" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="13">
-        <v>0.59970000000000001</v>
-      </c>
-      <c r="G15" s="13">
-        <v>0.41320000000000001</v>
-      </c>
-      <c r="H15" s="15">
-        <f t="shared" si="0"/>
-        <v>0.48928036331325891</v>
-      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="15"/>
       <c r="I15" t="s">
         <v>31</v>
       </c>
@@ -2122,16 +2028,9 @@
       <c r="E16" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="13">
-        <v>0.50370000000000004</v>
-      </c>
-      <c r="G16" s="13">
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="H16" s="15">
-        <f t="shared" si="0"/>
-        <v>0.41161817541387807</v>
-      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="12"/>
@@ -2147,16 +2046,9 @@
       <c r="E17" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="13">
-        <v>0.5544</v>
-      </c>
-      <c r="G17" s="13">
-        <v>0.68759999999999999</v>
-      </c>
-      <c r="H17" s="15">
-        <f t="shared" si="0"/>
-        <v>0.6138573913043478</v>
-      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="15"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="12"/>
@@ -2166,16 +2058,9 @@
       <c r="E18" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="13">
-        <v>0.6915</v>
-      </c>
-      <c r="G18" s="13">
-        <v>0.85680000000000001</v>
-      </c>
-      <c r="H18" s="15">
-        <f t="shared" si="0"/>
-        <v>0.76532609959310216</v>
-      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="15"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="12"/>
@@ -2185,16 +2070,9 @@
       <c r="E19" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="13">
-        <v>0.63739999999999997</v>
-      </c>
-      <c r="G19" s="13">
-        <v>0.42230000000000001</v>
-      </c>
-      <c r="H19" s="15">
-        <f t="shared" si="0"/>
-        <v>0.50801928847787114</v>
-      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="12"/>
@@ -2210,16 +2088,9 @@
       <c r="E20" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="13">
-        <v>0.62970000000000004</v>
-      </c>
-      <c r="G20" s="13">
-        <v>0.73809999999999998</v>
-      </c>
-      <c r="H20" s="15">
-        <f t="shared" si="0"/>
-        <v>0.67960457669249896</v>
-      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="15"/>
       <c r="I20" t="s">
         <v>33</v>
       </c>
@@ -2232,16 +2103,9 @@
       <c r="E21" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="13">
-        <v>0.7631</v>
-      </c>
-      <c r="G21" s="13">
-        <v>0.88290000000000002</v>
-      </c>
-      <c r="H21" s="15">
-        <f t="shared" si="0"/>
-        <v>0.81864032806804377</v>
-      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="15"/>
       <c r="I21" t="s">
         <v>34</v>
       </c>
@@ -2254,16 +2118,9 @@
       <c r="E22" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="13">
-        <v>0.77810000000000001</v>
-      </c>
-      <c r="G22" s="13">
-        <v>0.58750000000000002</v>
-      </c>
-      <c r="H22" s="15">
-        <f t="shared" si="0"/>
-        <v>0.66949875512595192</v>
-      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="15"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="12"/>
@@ -2279,16 +2136,9 @@
       <c r="E23" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="13">
-        <v>0.46929999999999999</v>
-      </c>
-      <c r="G23" s="13">
-        <v>0.74029999999999996</v>
-      </c>
-      <c r="H23" s="15">
-        <f t="shared" si="0"/>
-        <v>0.57444244378306875</v>
-      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="15"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="12"/>
@@ -2298,16 +2148,9 @@
       <c r="E24" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="13">
-        <v>0.75849999999999995</v>
-      </c>
-      <c r="G24" s="13">
-        <v>0.82389999999999997</v>
-      </c>
-      <c r="H24" s="15">
-        <f t="shared" si="0"/>
-        <v>0.78984852123356919</v>
-      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="15"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="12"/>
@@ -2317,16 +2160,9 @@
       <c r="E25" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="13">
-        <v>0.4904</v>
-      </c>
-      <c r="G25" s="13">
-        <v>0.42120000000000002</v>
-      </c>
-      <c r="H25" s="15">
-        <f t="shared" si="0"/>
-        <v>0.45317349714787192</v>
-      </c>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="12"/>
@@ -2342,16 +2178,9 @@
       <c r="E26" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="13">
-        <v>0.52710000000000001</v>
-      </c>
-      <c r="G26" s="13">
-        <v>0.73950000000000005</v>
-      </c>
-      <c r="H26" s="15">
-        <f t="shared" ref="H26:H43" si="1">2*F26*G26/(F26+G26)</f>
-        <v>0.61549099952629094</v>
-      </c>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="15"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="12"/>
@@ -2361,16 +2190,9 @@
       <c r="E27" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F27" s="13">
-        <v>0.82820000000000005</v>
-      </c>
-      <c r="G27" s="13">
-        <v>0.84540000000000004</v>
-      </c>
-      <c r="H27" s="15">
-        <f t="shared" si="1"/>
-        <v>0.83671161567877639</v>
-      </c>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="15"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="16"/>
@@ -2380,16 +2202,9 @@
       <c r="E28" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="17">
-        <v>0.56769999999999998</v>
-      </c>
-      <c r="G28" s="17">
-        <v>0.45729999999999998</v>
-      </c>
-      <c r="H28" s="19">
-        <f t="shared" si="1"/>
-        <v>0.50655455609756095</v>
-      </c>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="19"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
@@ -2407,45 +2222,15 @@
       <c r="E29" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F29">
-        <v>0.54479999999999995</v>
-      </c>
-      <c r="G29">
-        <v>0.627</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="1"/>
-        <v>0.58301689708141324</v>
-      </c>
     </row>
     <row r="30" spans="1:9">
       <c r="E30" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F30">
-        <v>0.432</v>
-      </c>
-      <c r="G30">
-        <v>0.49349999999999999</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="1"/>
-        <v>0.46070664505672609</v>
-      </c>
     </row>
     <row r="31" spans="1:9">
       <c r="E31" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="F31">
-        <v>0.49480000000000002</v>
-      </c>
-      <c r="G31">
-        <v>0.33150000000000002</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="1"/>
-        <v>0.39701367542054944</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2461,46 +2246,19 @@
       <c r="E32" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F32">
-        <v>0.51119999999999999</v>
-      </c>
-      <c r="G32">
-        <v>0.69130000000000003</v>
-      </c>
-      <c r="H32" s="23">
-        <f t="shared" si="1"/>
-        <v>0.58776309355509349</v>
-      </c>
+      <c r="H32" s="23"/>
     </row>
     <row r="33" spans="1:8">
       <c r="E33" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F33">
-        <v>0.86850000000000005</v>
-      </c>
-      <c r="G33">
-        <v>0.9677</v>
-      </c>
-      <c r="H33" s="23">
-        <f t="shared" si="1"/>
-        <v>0.91542037904367723</v>
-      </c>
+      <c r="H33" s="23"/>
     </row>
     <row r="34" spans="1:8">
       <c r="E34" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F34">
-        <v>0.66339999999999999</v>
-      </c>
-      <c r="G34">
-        <v>0.4521</v>
-      </c>
-      <c r="H34" s="23">
-        <f t="shared" si="1"/>
-        <v>0.53773758852532494</v>
-      </c>
+      <c r="H34" s="23"/>
     </row>
     <row r="35" spans="1:8">
       <c r="B35" t="s">
@@ -2515,46 +2273,19 @@
       <c r="E35" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F35">
-        <v>0.59570000000000001</v>
-      </c>
-      <c r="G35">
-        <v>0.74980000000000002</v>
-      </c>
-      <c r="H35" s="23">
-        <f t="shared" si="1"/>
-        <v>0.6639254700854702</v>
-      </c>
+      <c r="H35" s="23"/>
     </row>
     <row r="36" spans="1:8">
       <c r="E36" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F36">
-        <v>0.89810000000000001</v>
-      </c>
-      <c r="G36">
-        <v>0.97540000000000004</v>
-      </c>
-      <c r="H36" s="23">
-        <f t="shared" si="1"/>
-        <v>0.93515531358420068</v>
-      </c>
+      <c r="H36" s="23"/>
     </row>
     <row r="37" spans="1:8">
       <c r="E37" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F37">
-        <v>0.83840000000000003</v>
-      </c>
-      <c r="G37">
-        <v>0.61629999999999996</v>
-      </c>
-      <c r="H37" s="23">
-        <f t="shared" si="1"/>
-        <v>0.71039516051419549</v>
-      </c>
+      <c r="H37" s="23"/>
     </row>
     <row r="38" spans="1:8">
       <c r="B38" t="s">
@@ -2569,46 +2300,19 @@
       <c r="E38" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F38">
-        <v>0.43809999999999999</v>
-      </c>
-      <c r="G38">
-        <v>0.73460000000000003</v>
-      </c>
-      <c r="H38" s="23">
-        <f t="shared" si="1"/>
-        <v>0.54886716125181212</v>
-      </c>
+      <c r="H38" s="23"/>
     </row>
     <row r="39" spans="1:8">
       <c r="E39" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F39">
-        <v>0.73760000000000003</v>
-      </c>
-      <c r="G39">
-        <v>0.86580000000000001</v>
-      </c>
-      <c r="H39" s="23">
-        <f t="shared" si="1"/>
-        <v>0.79657487838343521</v>
-      </c>
+      <c r="H39" s="23"/>
     </row>
     <row r="40" spans="1:8">
       <c r="E40" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F40">
-        <v>0.43459999999999999</v>
-      </c>
-      <c r="G40">
-        <v>0.40839999999999999</v>
-      </c>
-      <c r="H40" s="23">
-        <f t="shared" si="1"/>
-        <v>0.42109285883748515</v>
-      </c>
+      <c r="H40" s="23"/>
     </row>
     <row r="41" spans="1:8">
       <c r="B41" t="s">
@@ -2623,46 +2327,19 @@
       <c r="E41" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F41">
-        <v>0.50690000000000002</v>
-      </c>
-      <c r="G41">
-        <v>0.72750000000000004</v>
-      </c>
-      <c r="H41" s="23">
-        <f t="shared" si="1"/>
-        <v>0.59748825340246281</v>
-      </c>
+      <c r="H41" s="23"/>
     </row>
     <row r="42" spans="1:8">
       <c r="E42" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F42">
-        <v>0.75980000000000003</v>
-      </c>
-      <c r="G42">
-        <v>0.87639999999999996</v>
-      </c>
-      <c r="H42" s="23">
-        <f t="shared" si="1"/>
-        <v>0.813945385649676</v>
-      </c>
+      <c r="H42" s="23"/>
     </row>
     <row r="43" spans="1:8">
       <c r="E43" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F43">
-        <v>0.49880000000000002</v>
-      </c>
-      <c r="G43">
-        <v>0.44879999999999998</v>
-      </c>
-      <c r="H43" s="23">
-        <f t="shared" si="1"/>
-        <v>0.47248087800759814</v>
-      </c>
+      <c r="H43" s="23"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
@@ -2714,46 +2391,19 @@
       <c r="E57" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F57">
-        <v>0.4839</v>
-      </c>
-      <c r="G57">
-        <v>0.65469999999999995</v>
-      </c>
-      <c r="H57" s="23">
-        <f t="shared" ref="H57:H59" si="2">2*F57*G57/(F57+G57)</f>
-        <v>0.55648924995608651</v>
-      </c>
+      <c r="H57" s="23"/>
     </row>
     <row r="58" spans="1:9">
       <c r="E58" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F58">
-        <v>0.69399999999999995</v>
-      </c>
-      <c r="G58">
-        <v>0.76519999999999999</v>
-      </c>
-      <c r="H58" s="23">
-        <f t="shared" si="2"/>
-        <v>0.7278629385964912</v>
-      </c>
+      <c r="H58" s="23"/>
     </row>
     <row r="59" spans="1:9">
       <c r="E59" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F59">
-        <v>0.44009999999999999</v>
-      </c>
-      <c r="G59">
-        <v>0.48859999999999998</v>
-      </c>
-      <c r="H59" s="23">
-        <f t="shared" si="2"/>
-        <v>0.4630835791967266</v>
-      </c>
+      <c r="H59" s="23"/>
     </row>
     <row r="61" spans="1:9">
       <c r="B61" t="s">
@@ -2769,14 +2419,14 @@
         <v>3</v>
       </c>
       <c r="F61">
-        <v>0.5867</v>
+        <v>0.68100000000000005</v>
       </c>
       <c r="G61">
-        <v>0.71960000000000002</v>
+        <v>0.72699999999999998</v>
       </c>
       <c r="H61" s="23">
-        <f t="shared" ref="H61:H63" si="3">2*F61*G61/(F61+G61)</f>
-        <v>0.64638952767358193</v>
+        <f t="shared" ref="H61:H63" si="0">2*F61*G61/(F61+G61)</f>
+        <v>0.70324857954545461</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2784,14 +2434,14 @@
         <v>5</v>
       </c>
       <c r="F62">
-        <v>0.72629999999999995</v>
+        <v>0.755</v>
       </c>
       <c r="G62">
-        <v>0.7772</v>
+        <v>0.82699999999999996</v>
       </c>
       <c r="H62" s="23">
-        <f t="shared" si="3"/>
-        <v>0.75088840705021631</v>
+        <f t="shared" si="0"/>
+        <v>0.78936156763590393</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2799,14 +2449,14 @@
         <v>7</v>
       </c>
       <c r="F63">
-        <v>0.61480000000000001</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="G63">
         <v>0.55269999999999997</v>
       </c>
       <c r="H63" s="23">
-        <f t="shared" si="3"/>
-        <v>0.58209843254817994</v>
+        <f t="shared" si="0"/>
+        <v>0.59056509648605371</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2825,46 +2475,19 @@
       <c r="E65" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F65">
-        <v>0.49619999999999997</v>
-      </c>
-      <c r="G65">
-        <v>0.67559999999999998</v>
-      </c>
-      <c r="H65" s="23">
-        <f t="shared" ref="H65:H67" si="4">2*F65*G65/(F65+G65)</f>
-        <v>0.57216712749615972</v>
-      </c>
+      <c r="H65" s="23"/>
     </row>
     <row r="66" spans="1:8">
       <c r="E66" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F66">
-        <v>0.74009999999999998</v>
-      </c>
-      <c r="G66">
-        <v>0.75390000000000001</v>
-      </c>
-      <c r="H66" s="23">
-        <f t="shared" si="4"/>
-        <v>0.74693626506024102</v>
-      </c>
+      <c r="H66" s="23"/>
     </row>
     <row r="67" spans="1:8">
       <c r="E67" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F67">
-        <v>0.44290000000000002</v>
-      </c>
-      <c r="G67">
-        <v>0.47239999999999999</v>
-      </c>
-      <c r="H67" s="23">
-        <f t="shared" si="4"/>
-        <v>0.45717460941767724</v>
-      </c>
+      <c r="H67" s="23"/>
     </row>
     <row r="69" spans="1:8">
       <c r="B69" t="s">
@@ -2879,46 +2502,19 @@
       <c r="E69" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F69">
-        <v>0.60019999999999996</v>
-      </c>
-      <c r="G69">
-        <v>0.72870000000000001</v>
-      </c>
-      <c r="H69" s="23">
-        <f t="shared" ref="H69:H71" si="5">2*F69*G69/(F69+G69)</f>
-        <v>0.6582372488524344</v>
-      </c>
+      <c r="H69" s="23"/>
     </row>
     <row r="70" spans="1:8">
       <c r="E70" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F70">
-        <v>0.7651</v>
-      </c>
-      <c r="G70">
-        <v>0.76910000000000001</v>
-      </c>
-      <c r="H70" s="23">
-        <f t="shared" si="5"/>
-        <v>0.76709478555599009</v>
-      </c>
+      <c r="H70" s="23"/>
     </row>
     <row r="71" spans="1:8">
       <c r="E71" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F71">
-        <v>0.62629999999999997</v>
-      </c>
-      <c r="G71">
-        <v>0.55740000000000001</v>
-      </c>
-      <c r="H71" s="23">
-        <f t="shared" si="5"/>
-        <v>0.5898447579623215</v>
-      </c>
+      <c r="H71" s="23"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="25" t="s">
@@ -2936,46 +2532,19 @@
       <c r="E73" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F73">
-        <v>0.59340000000000004</v>
-      </c>
-      <c r="G73">
-        <v>0.66720000000000002</v>
-      </c>
-      <c r="H73" s="23">
-        <f t="shared" ref="H73:H75" si="6">2*F73*G73/(F73+G73)</f>
-        <v>0.62813974297953346</v>
-      </c>
+      <c r="H73" s="23"/>
     </row>
     <row r="74" spans="1:8">
       <c r="E74" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F74">
-        <v>0.54490000000000005</v>
-      </c>
-      <c r="G74">
-        <v>0.83730000000000004</v>
-      </c>
-      <c r="H74" s="23">
-        <f t="shared" si="6"/>
-        <v>0.66017185646071486</v>
-      </c>
+      <c r="H74" s="23"/>
     </row>
     <row r="75" spans="1:8">
       <c r="E75" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F75">
-        <v>0.3705</v>
-      </c>
-      <c r="G75">
-        <v>0.56299999999999994</v>
-      </c>
-      <c r="H75" s="23">
-        <f t="shared" si="6"/>
-        <v>0.44690198178896623</v>
-      </c>
+      <c r="H75" s="23"/>
     </row>
     <row r="77" spans="1:8">
       <c r="B77" t="s">
@@ -2990,46 +2559,19 @@
       <c r="E77" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F77">
-        <v>0.69879999999999998</v>
-      </c>
-      <c r="G77">
-        <v>0.72870000000000001</v>
-      </c>
-      <c r="H77" s="23">
-        <f t="shared" ref="H77:H79" si="7">2*F77*G77/(F77+G77)</f>
-        <v>0.71343686164623465</v>
-      </c>
+      <c r="H77" s="23"/>
     </row>
     <row r="78" spans="1:8">
       <c r="E78" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F78">
-        <v>0.65849999999999997</v>
-      </c>
-      <c r="G78">
-        <v>0.82650000000000001</v>
-      </c>
-      <c r="H78" s="23">
-        <f t="shared" si="7"/>
-        <v>0.7329969696969697</v>
-      </c>
+      <c r="H78" s="23"/>
     </row>
     <row r="79" spans="1:8">
       <c r="E79" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F79">
-        <v>0.55889999999999995</v>
-      </c>
-      <c r="G79">
-        <v>0.60589999999999999</v>
-      </c>
-      <c r="H79" s="23">
-        <f t="shared" si="7"/>
-        <v>0.58145176854395597</v>
-      </c>
+      <c r="H79" s="23"/>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="26" t="s">
@@ -3047,46 +2589,19 @@
       <c r="E81" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F81">
-        <v>0.58169999999999999</v>
-      </c>
-      <c r="G81">
-        <v>0.67979999999999996</v>
-      </c>
-      <c r="H81" s="23">
-        <f t="shared" ref="H81:H83" si="8">2*F81*G81/(F81+G81)</f>
-        <v>0.62693564803805002</v>
-      </c>
+      <c r="H81" s="23"/>
     </row>
     <row r="82" spans="1:9">
       <c r="E82" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F82">
-        <v>0.60329999999999995</v>
-      </c>
-      <c r="G82">
-        <v>0.82469999999999999</v>
-      </c>
-      <c r="H82" s="23">
-        <f t="shared" si="8"/>
-        <v>0.69683684873949581</v>
-      </c>
+      <c r="H82" s="23"/>
     </row>
     <row r="83" spans="1:9">
       <c r="E83" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F83">
-        <v>0.36659999999999998</v>
-      </c>
-      <c r="G83">
-        <v>0.5675</v>
-      </c>
-      <c r="H83" s="23">
-        <f t="shared" si="8"/>
-        <v>0.44544588373835781</v>
-      </c>
+      <c r="H83" s="23"/>
     </row>
     <row r="85" spans="1:9">
       <c r="B85" t="s">
@@ -3101,46 +2616,19 @@
       <c r="E85" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F85">
-        <v>0.68910000000000005</v>
-      </c>
-      <c r="G85">
-        <v>0.74139999999999995</v>
-      </c>
-      <c r="H85" s="23">
-        <f t="shared" ref="H85:H87" si="9">2*F85*G85/(F85+G85)</f>
-        <v>0.71429393918210426</v>
-      </c>
+      <c r="H85" s="23"/>
     </row>
     <row r="86" spans="1:9">
       <c r="E86" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F86">
-        <v>0.68210000000000004</v>
-      </c>
-      <c r="G86">
-        <v>0.82069999999999999</v>
-      </c>
-      <c r="H86" s="23">
-        <f t="shared" si="9"/>
-        <v>0.74500861059355872</v>
-      </c>
+      <c r="H86" s="23"/>
     </row>
     <row r="87" spans="1:9">
       <c r="E87" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F87">
-        <v>0.55840000000000001</v>
-      </c>
-      <c r="G87">
-        <v>0.59699999999999998</v>
-      </c>
-      <c r="H87" s="23">
-        <f t="shared" si="9"/>
-        <v>0.57705521897178469</v>
-      </c>
+      <c r="H87" s="23"/>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
@@ -3187,16 +2675,7 @@
       <c r="E92" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F92">
-        <v>0.53400000000000003</v>
-      </c>
-      <c r="G92">
-        <v>0.63539999999999996</v>
-      </c>
-      <c r="H92" s="23">
-        <f t="shared" ref="H92:H98" si="10">2*F92*G92/(F92+G92)</f>
-        <v>0.58030374551051822</v>
-      </c>
+      <c r="H92" s="23"/>
       <c r="I92" t="s">
         <v>54</v>
       </c>
@@ -3208,31 +2687,13 @@
       <c r="E93" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F93">
-        <v>0.62250000000000005</v>
-      </c>
-      <c r="G93">
-        <v>0.85780000000000001</v>
-      </c>
-      <c r="H93" s="23">
-        <f t="shared" si="10"/>
-        <v>0.72144903060190502</v>
-      </c>
+      <c r="H93" s="23"/>
     </row>
     <row r="94" spans="1:9">
       <c r="E94" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F94">
-        <v>0.48299999999999998</v>
-      </c>
-      <c r="G94">
-        <v>0.50800000000000001</v>
-      </c>
-      <c r="H94" s="23">
-        <f t="shared" si="10"/>
-        <v>0.49518466195761857</v>
-      </c>
+      <c r="H94" s="23"/>
     </row>
     <row r="96" spans="1:9">
       <c r="B96" t="s">
@@ -3247,16 +2708,7 @@
       <c r="E96" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F96">
-        <v>0.60089999999999999</v>
-      </c>
-      <c r="G96">
-        <v>0.66210000000000002</v>
-      </c>
-      <c r="H96" s="23">
-        <f t="shared" si="10"/>
-        <v>0.63001724465558195</v>
-      </c>
+      <c r="H96" s="23"/>
       <c r="I96" t="s">
         <v>55</v>
       </c>
@@ -3268,31 +2720,13 @@
       <c r="E97" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F97">
-        <v>0.67269999999999996</v>
-      </c>
-      <c r="G97">
-        <v>0.86929999999999996</v>
-      </c>
-      <c r="H97" s="23">
-        <f t="shared" si="10"/>
-        <v>0.75846706874189362</v>
-      </c>
+      <c r="H97" s="23"/>
     </row>
     <row r="98" spans="2:9">
       <c r="E98" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F98">
-        <v>0.63800000000000001</v>
-      </c>
-      <c r="G98">
-        <v>0.59299999999999997</v>
-      </c>
-      <c r="H98" s="23">
-        <f t="shared" si="10"/>
-        <v>0.61467749796913085</v>
-      </c>
+      <c r="H98" s="23"/>
     </row>
     <row r="100" spans="2:9">
       <c r="B100" t="s">
@@ -3307,16 +2741,7 @@
       <c r="E100" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F100">
-        <v>0.54630000000000001</v>
-      </c>
-      <c r="G100">
-        <v>0.69030000000000002</v>
-      </c>
-      <c r="H100" s="23">
-        <f t="shared" ref="H100:H102" si="11">2*F100*G100/(F100+G100)</f>
-        <v>0.60991572052401744</v>
-      </c>
+      <c r="H100" s="23"/>
       <c r="I100" t="s">
         <v>56</v>
       </c>
@@ -3328,31 +2753,13 @@
       <c r="E101" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F101">
-        <v>0.67349999999999999</v>
-      </c>
-      <c r="G101">
-        <v>0.82879999999999998</v>
-      </c>
-      <c r="H101" s="23">
-        <f t="shared" si="11"/>
-        <v>0.74312294481794572</v>
-      </c>
+      <c r="H101" s="23"/>
     </row>
     <row r="102" spans="2:9">
       <c r="E102" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F102">
-        <v>0.54759999999999998</v>
-      </c>
-      <c r="G102">
-        <v>0.48359999999999997</v>
-      </c>
-      <c r="H102" s="23">
-        <f t="shared" si="11"/>
-        <v>0.51361396431342121</v>
-      </c>
+      <c r="H102" s="23"/>
     </row>
     <row r="104" spans="2:9">
       <c r="B104" t="s">
@@ -3367,16 +2774,7 @@
       <c r="E104" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F104">
-        <v>0.60850000000000004</v>
-      </c>
-      <c r="G104">
-        <v>0.71450000000000002</v>
-      </c>
-      <c r="H104" s="23">
-        <f t="shared" ref="H104:H106" si="12">2*F104*G104/(F104+G104)</f>
-        <v>0.65725359032501895</v>
-      </c>
+      <c r="H104" s="23"/>
       <c r="I104" t="s">
         <v>56</v>
       </c>
@@ -3388,31 +2786,13 @@
       <c r="E105" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F105">
-        <v>0.71379999999999999</v>
-      </c>
-      <c r="G105">
-        <v>0.8417</v>
-      </c>
-      <c r="H105" s="23">
-        <f t="shared" si="12"/>
-        <v>0.77249175184828034</v>
-      </c>
+      <c r="H105" s="23"/>
     </row>
     <row r="106" spans="2:9">
       <c r="E106" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F106">
-        <v>0.66990000000000005</v>
-      </c>
-      <c r="G106">
-        <v>0.57440000000000002</v>
-      </c>
-      <c r="H106" s="23">
-        <f t="shared" si="12"/>
-        <v>0.61848518845937484</v>
-      </c>
+      <c r="H106" s="23"/>
     </row>
     <row r="108" spans="2:9">
       <c r="B108" t="s">
@@ -3427,16 +2807,7 @@
       <c r="E108" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F108">
-        <v>0.54669999999999996</v>
-      </c>
-      <c r="G108">
-        <v>0.6895</v>
-      </c>
-      <c r="H108" s="23">
-        <f t="shared" ref="H108:H110" si="13">2*F108*G108/(F108+G108)</f>
-        <v>0.6098522083805209</v>
-      </c>
+      <c r="H108" s="23"/>
       <c r="I108" t="s">
         <v>58</v>
       </c>
@@ -3448,31 +2819,13 @@
       <c r="E109" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F109">
-        <v>0.69079999999999997</v>
-      </c>
-      <c r="G109">
-        <v>0.82540000000000002</v>
-      </c>
-      <c r="H109" s="23">
-        <f t="shared" si="13"/>
-        <v>0.75212547157367105</v>
-      </c>
+      <c r="H109" s="23"/>
     </row>
     <row r="110" spans="2:9">
       <c r="E110" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F110">
-        <v>0.56599999999999995</v>
-      </c>
-      <c r="G110">
-        <v>0.4758</v>
-      </c>
-      <c r="H110" s="23">
-        <f t="shared" si="13"/>
-        <v>0.51699520061432136</v>
-      </c>
+      <c r="H110" s="23"/>
     </row>
     <row r="112" spans="2:9">
       <c r="B112" t="s">
@@ -3487,16 +2840,7 @@
       <c r="E112" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F112">
-        <v>0.60550000000000004</v>
-      </c>
-      <c r="G112">
-        <v>0.71319999999999995</v>
-      </c>
-      <c r="H112" s="23">
-        <f t="shared" ref="H112:H114" si="14">2*F112*G112/(F112+G112)</f>
-        <v>0.65495199818002581</v>
-      </c>
+      <c r="H112" s="23"/>
       <c r="I112" t="s">
         <v>58</v>
       </c>
@@ -3508,31 +2852,13 @@
       <c r="E113" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F113">
-        <v>0.72350000000000003</v>
-      </c>
-      <c r="G113">
-        <v>0.83709999999999996</v>
-      </c>
-      <c r="H113" s="23">
-        <f t="shared" si="14"/>
-        <v>0.77616538510829169</v>
-      </c>
+      <c r="H113" s="23"/>
     </row>
     <row r="114" spans="2:9">
       <c r="E114" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F114">
-        <v>0.6784</v>
-      </c>
-      <c r="G114">
-        <v>0.56679999999999997</v>
-      </c>
-      <c r="H114" s="23">
-        <f t="shared" si="14"/>
-        <v>0.61759897205268222</v>
-      </c>
+      <c r="H114" s="23"/>
     </row>
     <row r="116" spans="2:9">
       <c r="B116" t="s">
@@ -3547,16 +2873,7 @@
       <c r="E116" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F116">
-        <v>0.62339999999999995</v>
-      </c>
-      <c r="G116">
-        <v>0.70799999999999996</v>
-      </c>
-      <c r="H116" s="23">
-        <f t="shared" ref="H116:H118" si="15">2*F116*G116/(F116+G116)</f>
-        <v>0.66301216764308246</v>
-      </c>
+      <c r="H116" s="23"/>
       <c r="I116" t="s">
         <v>59</v>
       </c>
@@ -3568,31 +2885,13 @@
       <c r="E117" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F117">
-        <v>0.60150000000000003</v>
-      </c>
-      <c r="G117">
-        <v>0.84350000000000003</v>
-      </c>
-      <c r="H117" s="23">
-        <f t="shared" si="15"/>
-        <v>0.70223564013840845</v>
-      </c>
+      <c r="H117" s="23"/>
     </row>
     <row r="118" spans="2:9">
       <c r="E118" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F118">
-        <v>0.46579999999999999</v>
-      </c>
-      <c r="G118">
-        <v>0.50190000000000001</v>
-      </c>
-      <c r="H118" s="23">
-        <f t="shared" si="15"/>
-        <v>0.48317664565464508</v>
-      </c>
+      <c r="H118" s="23"/>
     </row>
     <row r="120" spans="2:9">
       <c r="B120" t="s">
@@ -3607,16 +2906,7 @@
       <c r="E120" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F120">
-        <v>0.67110000000000003</v>
-      </c>
-      <c r="G120">
-        <v>0.73750000000000004</v>
-      </c>
-      <c r="H120" s="23">
-        <f t="shared" ref="H120:H167" si="16">2*F120*G120/(F120+G120)</f>
-        <v>0.70273498509158039</v>
-      </c>
+      <c r="H120" s="23"/>
       <c r="I120" t="s">
         <v>59</v>
       </c>
@@ -3628,31 +2918,13 @@
       <c r="E121" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F121">
-        <v>0.66220000000000001</v>
-      </c>
-      <c r="G121">
-        <v>0.85519999999999996</v>
-      </c>
-      <c r="H121" s="23">
-        <f t="shared" si="16"/>
-        <v>0.74642604454988792</v>
-      </c>
+      <c r="H121" s="23"/>
     </row>
     <row r="122" spans="2:9">
       <c r="E122" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F122">
-        <v>0.59109999999999996</v>
-      </c>
-      <c r="G122">
-        <v>0.58340000000000003</v>
-      </c>
-      <c r="H122" s="23">
-        <f t="shared" si="16"/>
-        <v>0.58722475947211572</v>
-      </c>
+      <c r="H122" s="23"/>
     </row>
     <row r="124" spans="2:9">
       <c r="B124" t="s">
@@ -3667,16 +2939,7 @@
       <c r="E124" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F124">
-        <v>0.61919999999999997</v>
-      </c>
-      <c r="G124">
-        <v>0.70640000000000003</v>
-      </c>
-      <c r="H124" s="23">
-        <f t="shared" si="16"/>
-        <v>0.65993192516596255</v>
-      </c>
+      <c r="H124" s="23"/>
       <c r="I124" t="s">
         <v>60</v>
       </c>
@@ -3688,31 +2951,13 @@
       <c r="E125" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F125">
-        <v>0.70799999999999996</v>
-      </c>
-      <c r="G125">
-        <v>0.82569999999999999</v>
-      </c>
-      <c r="H125" s="23">
-        <f t="shared" si="16"/>
-        <v>0.76233370281019752</v>
-      </c>
+      <c r="H125" s="23"/>
     </row>
     <row r="126" spans="2:9">
       <c r="E126" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F126">
-        <v>0.55349999999999999</v>
-      </c>
-      <c r="G126">
-        <v>0.4793</v>
-      </c>
-      <c r="H126" s="23">
-        <f t="shared" si="16"/>
-        <v>0.51373460495739742</v>
-      </c>
+      <c r="H126" s="23"/>
     </row>
     <row r="128" spans="2:9">
       <c r="B128" t="s">
@@ -3727,16 +2972,7 @@
       <c r="E128" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F128">
-        <v>0.67530000000000001</v>
-      </c>
-      <c r="G128">
-        <v>0.7369</v>
-      </c>
-      <c r="H128" s="23">
-        <f t="shared" si="16"/>
-        <v>0.7047565075768305</v>
-      </c>
+      <c r="H128" s="23"/>
       <c r="I128" t="s">
         <v>60</v>
       </c>
@@ -3748,31 +2984,13 @@
       <c r="E129" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F129">
-        <v>0.74080000000000001</v>
-      </c>
-      <c r="G129">
-        <v>0.83930000000000005</v>
-      </c>
-      <c r="H129" s="23">
-        <f t="shared" si="16"/>
-        <v>0.78697986203404846</v>
-      </c>
+      <c r="H129" s="23"/>
     </row>
     <row r="130" spans="1:9">
       <c r="E130" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F130">
-        <v>0.67600000000000005</v>
-      </c>
-      <c r="G130">
-        <v>0.5696</v>
-      </c>
-      <c r="H130" s="23">
-        <f t="shared" si="16"/>
-        <v>0.61825561978163135</v>
-      </c>
+      <c r="H130" s="23"/>
     </row>
     <row r="131" spans="1:9">
       <c r="E131" s="4"/>
@@ -3791,16 +3009,7 @@
       <c r="E132" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F132">
-        <v>0.62109999999999999</v>
-      </c>
-      <c r="G132">
-        <v>0.7046</v>
-      </c>
-      <c r="H132" s="23">
-        <f t="shared" ref="H132:H134" si="17">2*F132*G132/(F132+G132)</f>
-        <v>0.66022035151240865</v>
-      </c>
+      <c r="H132" s="23"/>
       <c r="I132" t="s">
         <v>68</v>
       </c>
@@ -3812,31 +3021,13 @@
       <c r="E133" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F133">
-        <v>0.69530000000000003</v>
-      </c>
-      <c r="G133">
-        <v>0.82909999999999995</v>
-      </c>
-      <c r="H133" s="23">
-        <f t="shared" si="17"/>
-        <v>0.75632803726056153</v>
-      </c>
+      <c r="H133" s="23"/>
     </row>
     <row r="134" spans="1:9">
       <c r="E134" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F134">
-        <v>0.46329999999999999</v>
-      </c>
-      <c r="G134">
-        <v>0.50729999999999997</v>
-      </c>
-      <c r="H134" s="23">
-        <f t="shared" si="17"/>
-        <v>0.484302678755409</v>
-      </c>
+      <c r="H134" s="23"/>
     </row>
     <row r="136" spans="1:9">
       <c r="B136" t="s">
@@ -3851,16 +3042,7 @@
       <c r="E136" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F136">
-        <v>0.67759999999999998</v>
-      </c>
-      <c r="G136">
-        <v>0.73350000000000004</v>
-      </c>
-      <c r="H136" s="23">
-        <f t="shared" ref="H136:H138" si="18">2*F136*G136/(F136+G136)</f>
-        <v>0.70444277513996167</v>
-      </c>
+      <c r="H136" s="23"/>
       <c r="I136" t="s">
         <v>68</v>
       </c>
@@ -3872,31 +3054,13 @@
       <c r="E137" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F137">
-        <v>0.73040000000000005</v>
-      </c>
-      <c r="G137">
-        <v>0.83889999999999998</v>
-      </c>
-      <c r="H137" s="23">
-        <f t="shared" si="18"/>
-        <v>0.78089920346651365</v>
-      </c>
+      <c r="H137" s="23"/>
     </row>
     <row r="138" spans="1:9">
       <c r="E138" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F138">
-        <v>0.54820000000000002</v>
-      </c>
-      <c r="G138">
-        <v>0.59319999999999995</v>
-      </c>
-      <c r="H138" s="23">
-        <f t="shared" si="18"/>
-        <v>0.56981293148764667</v>
-      </c>
+      <c r="H138" s="23"/>
     </row>
     <row r="139" spans="1:9">
       <c r="E139" s="4"/>
@@ -3948,14 +3112,14 @@
         <v>3</v>
       </c>
       <c r="F141">
-        <v>0.65820000000000001</v>
+        <v>0.72599999999999998</v>
       </c>
       <c r="G141">
-        <v>0.64890000000000003</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="H141" s="23">
-        <f t="shared" si="16"/>
-        <v>0.6535169153086986</v>
+        <f t="shared" ref="H120:H167" si="1">2*F141*G141/(F141+G141)</f>
+        <v>0.67859427732942035</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -3966,14 +3130,14 @@
         <v>5</v>
       </c>
       <c r="F142">
-        <v>0.50160000000000005</v>
+        <v>0.50700000000000001</v>
       </c>
       <c r="G142">
-        <v>0.39369999999999999</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="H142" s="23">
-        <f t="shared" si="16"/>
-        <v>0.44114803976320788</v>
+        <f t="shared" si="1"/>
+        <v>0.47959459459459464</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -3981,14 +3145,14 @@
         <v>7</v>
       </c>
       <c r="F143">
-        <v>0.58179999999999998</v>
+        <v>0.66400000000000003</v>
       </c>
       <c r="G143">
-        <v>0.41649999999999998</v>
+        <v>0.37</v>
       </c>
       <c r="H143" s="23">
-        <f t="shared" si="16"/>
-        <v>0.485464689972954</v>
+        <f t="shared" si="1"/>
+        <v>0.47520309477756284</v>
       </c>
     </row>
     <row r="145" spans="2:8">
@@ -4005,14 +3169,14 @@
         <v>3</v>
       </c>
       <c r="F145">
-        <v>0.66259999999999997</v>
+        <v>0.69399999999999995</v>
       </c>
       <c r="G145">
-        <v>0.67030000000000001</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="H145" s="23">
-        <f t="shared" si="16"/>
-        <v>0.66642775902168194</v>
+        <f t="shared" si="1"/>
+        <v>0.67499333826794961</v>
       </c>
     </row>
     <row r="146" spans="2:8">
@@ -4023,14 +3187,14 @@
         <v>5</v>
       </c>
       <c r="F146">
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
       <c r="G146">
-        <v>0.39329999999999998</v>
+        <v>0.47199999999999998</v>
       </c>
       <c r="H146" s="23">
-        <f t="shared" si="16"/>
-        <v>0.48129083193526095</v>
+        <f t="shared" si="1"/>
+        <v>0.52835820895522378</v>
       </c>
     </row>
     <row r="147" spans="2:8">
@@ -4038,14 +3202,14 @@
         <v>7</v>
       </c>
       <c r="F147">
-        <v>0.6391</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="G147">
-        <v>0.54610000000000003</v>
+        <v>0.49299999999999999</v>
       </c>
       <c r="H147" s="23">
-        <f t="shared" si="16"/>
-        <v>0.58895124873439075</v>
+        <f t="shared" si="1"/>
+        <v>0.59239838056680161</v>
       </c>
     </row>
     <row r="149" spans="2:8">
@@ -4062,14 +3226,14 @@
         <v>3</v>
       </c>
       <c r="F149">
-        <v>0.59360000000000002</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="G149">
-        <v>0.69110000000000005</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="H149" s="23">
-        <f t="shared" si="16"/>
-        <v>0.63865020627383828</v>
+        <f t="shared" si="1"/>
+        <v>0.67700000000000005</v>
       </c>
     </row>
     <row r="150" spans="2:8">
@@ -4080,14 +3244,14 @@
         <v>5</v>
       </c>
       <c r="F150">
-        <v>0.73850000000000005</v>
+        <v>0.70899999999999996</v>
       </c>
       <c r="G150">
-        <v>0.90349999999999997</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="H150" s="23">
-        <f t="shared" si="16"/>
-        <v>0.81270980511571256</v>
+        <f t="shared" si="1"/>
+        <v>0.79277487562189042</v>
       </c>
     </row>
     <row r="151" spans="2:8">
@@ -4095,14 +3259,14 @@
         <v>7</v>
       </c>
       <c r="F151">
-        <v>0.6744</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="G151">
-        <v>0.49380000000000002</v>
+        <v>0.496</v>
       </c>
       <c r="H151" s="23">
-        <f t="shared" si="16"/>
-        <v>0.57013990755007693</v>
+        <f t="shared" si="1"/>
+        <v>0.54429117379435843</v>
       </c>
     </row>
     <row r="153" spans="2:8">
@@ -4119,14 +3283,14 @@
         <v>3</v>
       </c>
       <c r="F153">
-        <v>0.62190000000000001</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="G153">
-        <v>0.74970000000000003</v>
+        <v>0.73199999999999998</v>
       </c>
       <c r="H153" s="23">
-        <f t="shared" si="16"/>
-        <v>0.67984606299212602</v>
+        <f t="shared" si="1"/>
+        <v>0.71143820224719101</v>
       </c>
     </row>
     <row r="154" spans="2:8">
@@ -4137,14 +3301,14 @@
         <v>5</v>
       </c>
       <c r="F154">
-        <v>0.78190000000000004</v>
+        <v>0.76200000000000001</v>
       </c>
       <c r="G154">
-        <v>0.91439999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="H154" s="23">
-        <f t="shared" si="16"/>
-        <v>0.84297513411542768</v>
+        <f t="shared" si="1"/>
+        <v>0.82944976076555021</v>
       </c>
     </row>
     <row r="155" spans="2:8">
@@ -4152,14 +3316,14 @@
         <v>7</v>
       </c>
       <c r="F155">
-        <v>0.80030000000000001</v>
+        <v>0.73899999999999999</v>
       </c>
       <c r="G155">
-        <v>0.60809999999999997</v>
+        <v>0.626</v>
       </c>
       <c r="H155" s="23">
-        <f t="shared" si="16"/>
-        <v>0.69108552967906844</v>
+        <f t="shared" si="1"/>
+        <v>0.6778227106227106</v>
       </c>
     </row>
     <row r="157" spans="2:8">
@@ -4176,14 +3340,14 @@
         <v>3</v>
       </c>
       <c r="F157">
-        <v>0.50719999999999998</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="G157">
-        <v>0.67620000000000002</v>
+        <v>0.749</v>
       </c>
       <c r="H157" s="23">
-        <f t="shared" si="16"/>
-        <v>0.57963265168159539</v>
+        <f t="shared" si="1"/>
+        <v>0.66130947054436984</v>
       </c>
     </row>
     <row r="158" spans="2:8">
@@ -4194,14 +3358,14 @@
         <v>5</v>
       </c>
       <c r="F158">
-        <v>0.7782</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="G158">
-        <v>0.88690000000000002</v>
+        <v>0.89</v>
       </c>
       <c r="H158" s="23">
-        <f t="shared" si="16"/>
-        <v>0.8290019578403699</v>
+        <f t="shared" si="1"/>
+        <v>0.83420895522388061</v>
       </c>
     </row>
     <row r="159" spans="2:8">
@@ -4209,14 +3373,14 @@
         <v>7</v>
       </c>
       <c r="F159">
-        <v>0.50439999999999996</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="G159">
-        <v>0.47989999999999999</v>
+        <v>0.442</v>
       </c>
       <c r="H159" s="23">
-        <f t="shared" si="16"/>
-        <v>0.49184508787971143</v>
+        <f t="shared" si="1"/>
+        <v>0.49904630541871925</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4233,14 +3397,14 @@
         <v>3</v>
       </c>
       <c r="F161">
-        <v>0.56459999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="G161">
-        <v>0.69279999999999997</v>
+        <v>0.76200000000000001</v>
       </c>
       <c r="H161" s="23">
-        <f t="shared" si="16"/>
-        <v>0.6221645936058533</v>
+        <f t="shared" si="1"/>
+        <v>0.68974137931034485</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4251,14 +3415,14 @@
         <v>5</v>
       </c>
       <c r="F162">
-        <v>0.85029999999999994</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="G162">
-        <v>0.90029999999999999</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="H162" s="23">
-        <f t="shared" si="16"/>
-        <v>0.87458595909973713</v>
+        <f t="shared" si="1"/>
+        <v>0.88054597048808181</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4266,14 +3430,14 @@
         <v>7</v>
       </c>
       <c r="F163">
-        <v>0.58940000000000003</v>
+        <v>0.71</v>
       </c>
       <c r="G163">
-        <v>0.48730000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="H163" s="23">
-        <f t="shared" si="16"/>
-        <v>0.53350909259775248</v>
+        <f t="shared" si="1"/>
+        <v>0.55086206896551726</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4288,16 +3452,16 @@
         <v>3</v>
       </c>
       <c r="F165">
-        <f>AVERAGE(F153,F161)</f>
-        <v>0.59325000000000006</v>
+        <f t="shared" ref="F165:G167" si="2">AVERAGE(F153,F161)</f>
+        <v>0.66100000000000003</v>
       </c>
       <c r="G165">
-        <f>AVERAGE(G153,G161)</f>
-        <v>0.72124999999999995</v>
+        <f t="shared" si="2"/>
+        <v>0.747</v>
       </c>
       <c r="H165" s="23">
-        <f t="shared" si="16"/>
-        <v>0.65101797261316097</v>
+        <f t="shared" si="1"/>
+        <v>0.70137357954545465</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4305,16 +3469,16 @@
         <v>5</v>
       </c>
       <c r="F166">
-        <f>AVERAGE(F154,F162)</f>
-        <v>0.81610000000000005</v>
+        <f t="shared" si="2"/>
+        <v>0.8115</v>
       </c>
       <c r="G166">
-        <f>AVERAGE(G154,G162)</f>
-        <v>0.90734999999999999</v>
+        <f t="shared" si="2"/>
+        <v>0.90549999999999997</v>
       </c>
       <c r="H166" s="23">
-        <f t="shared" si="16"/>
-        <v>0.85930933302387646</v>
+        <f t="shared" si="1"/>
+        <v>0.85592690739662192</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4322,16 +3486,16 @@
         <v>7</v>
       </c>
       <c r="F167">
-        <f>AVERAGE(F155,F163)</f>
-        <v>0.69484999999999997</v>
+        <f t="shared" si="2"/>
+        <v>0.72449999999999992</v>
       </c>
       <c r="G167">
-        <f>AVERAGE(G155,G163)</f>
-        <v>0.54769999999999996</v>
+        <f t="shared" si="2"/>
+        <v>0.53800000000000003</v>
       </c>
       <c r="H167" s="23">
-        <f t="shared" si="16"/>
-        <v>0.61256182044988117</v>
+        <f t="shared" si="1"/>
+        <v>0.61747485148514847</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4359,14 +3523,14 @@
         <v>3</v>
       </c>
       <c r="F171">
-        <v>0.62639999999999996</v>
+        <v>0.72</v>
       </c>
       <c r="G171">
-        <v>0.64939999999999998</v>
+        <v>0.65400000000000003</v>
       </c>
       <c r="H171" s="23">
-        <f t="shared" ref="H171:H173" si="19">2*F171*G171/(F171+G171)</f>
-        <v>0.63769267910330774</v>
+        <f t="shared" ref="H171:H173" si="3">2*F171*G171/(F171+G171)</f>
+        <v>0.68541484716157208</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4377,14 +3541,14 @@
         <v>5</v>
       </c>
       <c r="F172">
-        <v>0.4607</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="G172">
-        <v>0.58320000000000005</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="H172" s="23">
-        <f t="shared" si="19"/>
-        <v>0.5147624101925472</v>
+        <f t="shared" si="3"/>
+        <v>0.51761604584527221</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4392,14 +3556,14 @@
         <v>7</v>
       </c>
       <c r="F173">
-        <v>0.55479999999999996</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="G173">
-        <v>0.3977</v>
+        <v>0.437</v>
       </c>
       <c r="H173" s="23">
-        <f t="shared" si="19"/>
-        <v>0.46329440419947504</v>
+        <f t="shared" si="3"/>
+        <v>0.46064718614718619</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4416,14 +3580,14 @@
         <v>3</v>
       </c>
       <c r="F175">
-        <v>0.6613</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="G175">
-        <v>0.6673</v>
+        <v>0.68</v>
       </c>
       <c r="H175" s="23">
-        <f t="shared" ref="H175:H177" si="20">2*F175*G175/(F175+G175)</f>
-        <v>0.66428645190426017</v>
+        <f t="shared" ref="H175:H177" si="4">2*F175*G175/(F175+G175)</f>
+        <v>0.68594752186588925</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4434,14 +3598,14 @@
         <v>5</v>
       </c>
       <c r="F176">
-        <v>0.46639999999999998</v>
+        <v>0.48599999999999999</v>
       </c>
       <c r="G176">
-        <v>0.60299999999999998</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="H176" s="23">
-        <f t="shared" si="20"/>
-        <v>0.52597568730129041</v>
+        <f t="shared" si="4"/>
+        <v>0.54255272727272719</v>
       </c>
     </row>
     <row r="177" spans="2:8">
@@ -4449,14 +3613,14 @@
         <v>7</v>
       </c>
       <c r="F177">
-        <v>0.62539999999999996</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="G177">
-        <v>0.55049999999999999</v>
+        <v>0.501</v>
       </c>
       <c r="H177" s="23">
-        <f t="shared" si="20"/>
-        <v>0.58556458882558038</v>
+        <f t="shared" si="4"/>
+        <v>0.52885956644674847</v>
       </c>
     </row>
     <row r="179" spans="2:8">
@@ -4473,14 +3637,14 @@
         <v>3</v>
       </c>
       <c r="F179">
-        <v>0.56799999999999995</v>
+        <v>0.67</v>
       </c>
       <c r="G179">
-        <v>0.69340000000000002</v>
+        <v>0.68500000000000005</v>
       </c>
       <c r="H179" s="23">
-        <f t="shared" ref="H179:H181" si="21">2*F179*G179/(F179+G179)</f>
-        <v>0.62446678293959079</v>
+        <f t="shared" ref="H179:H181" si="5">2*F179*G179/(F179+G179)</f>
+        <v>0.67741697416974178</v>
       </c>
     </row>
     <row r="180" spans="2:8">
@@ -4491,14 +3655,14 @@
         <v>5</v>
       </c>
       <c r="F180">
-        <v>0.84150000000000003</v>
+        <v>0.87</v>
       </c>
       <c r="G180">
-        <v>0.98519999999999996</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="H180" s="23">
-        <f t="shared" si="21"/>
-        <v>0.90769781573328945</v>
+        <f t="shared" si="5"/>
+        <v>0.91817589576547221</v>
       </c>
     </row>
     <row r="181" spans="2:8">
@@ -4506,14 +3670,14 @@
         <v>7</v>
       </c>
       <c r="F181">
-        <v>0.70940000000000003</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="G181">
-        <v>0.50080000000000002</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="H181" s="23">
-        <f t="shared" si="21"/>
-        <v>0.58712199636423745</v>
+        <f t="shared" si="5"/>
+        <v>0.54227214611872143</v>
       </c>
     </row>
     <row r="183" spans="2:8">
@@ -4530,14 +3694,14 @@
         <v>3</v>
       </c>
       <c r="F183">
-        <v>0.60050000000000003</v>
+        <v>0.68899999999999995</v>
       </c>
       <c r="G183">
-        <v>0.78759999999999997</v>
+        <v>0.749</v>
       </c>
       <c r="H183" s="23">
-        <f t="shared" ref="H183:H185" si="22">2*F183*G183/(F183+G183)</f>
-        <v>0.68144053022116557</v>
+        <f t="shared" ref="H183:H185" si="6">2*F183*G183/(F183+G183)</f>
+        <v>0.71774826147426984</v>
       </c>
     </row>
     <row r="184" spans="2:8">
@@ -4548,14 +3712,14 @@
         <v>5</v>
       </c>
       <c r="F184">
-        <v>0.84619999999999995</v>
+        <v>0.88</v>
       </c>
       <c r="G184">
-        <v>0.98640000000000005</v>
+        <v>0.97699999999999998</v>
       </c>
       <c r="H184" s="23">
-        <f t="shared" si="22"/>
-        <v>0.91093711666484778</v>
+        <f t="shared" si="6"/>
+        <v>0.92596661281637049</v>
       </c>
     </row>
     <row r="185" spans="2:8">
@@ -4563,14 +3727,14 @@
         <v>7</v>
       </c>
       <c r="F185">
-        <v>0.84989999999999999</v>
+        <v>0.71099999999999997</v>
       </c>
       <c r="G185">
-        <v>0.62409999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="H185" s="23">
-        <f t="shared" si="22"/>
-        <v>0.71970500678426053</v>
+        <f t="shared" si="6"/>
+        <v>0.67363434492968177</v>
       </c>
     </row>
     <row r="187" spans="2:8">
@@ -4587,14 +3751,14 @@
         <v>3</v>
       </c>
       <c r="F187">
-        <v>0.48870000000000002</v>
+        <v>0.58899999999999997</v>
       </c>
       <c r="G187">
-        <v>0.70330000000000004</v>
+        <v>0.75</v>
       </c>
       <c r="H187" s="23">
-        <f t="shared" ref="H187:H189" si="23">2*F187*G187/(F187+G187)</f>
-        <v>0.57668239932885901</v>
+        <f t="shared" ref="H187:H189" si="7">2*F187*G187/(F187+G187)</f>
+        <v>0.65982076176250937</v>
       </c>
     </row>
     <row r="188" spans="2:8">
@@ -4605,14 +3769,14 @@
         <v>5</v>
       </c>
       <c r="F188">
-        <v>0.6744</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="G188">
-        <v>0.86109999999999998</v>
+        <v>0.874</v>
       </c>
       <c r="H188" s="23">
-        <f t="shared" si="23"/>
-        <v>0.75639966134809511</v>
+        <f t="shared" si="7"/>
+        <v>0.81072883435582832</v>
       </c>
     </row>
     <row r="189" spans="2:8">
@@ -4620,14 +3784,14 @@
         <v>7</v>
       </c>
       <c r="F189">
-        <v>0.44650000000000001</v>
+        <v>0.44</v>
       </c>
       <c r="G189">
-        <v>0.47139999999999999</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="H189" s="23">
-        <f t="shared" si="23"/>
-        <v>0.45861226713149583</v>
+        <f t="shared" si="7"/>
+        <v>0.39234256926952132</v>
       </c>
     </row>
     <row r="191" spans="2:8">
@@ -4644,14 +3808,14 @@
         <v>3</v>
       </c>
       <c r="F191">
-        <v>0.54120000000000001</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="G191">
-        <v>0.6996</v>
+        <v>0.75900000000000001</v>
       </c>
       <c r="H191" s="23">
-        <f t="shared" ref="H191:H193" si="24">2*F191*G191/(F191+G191)</f>
-        <v>0.61028936170212755</v>
+        <f t="shared" ref="H191:H193" si="8">2*F191*G191/(F191+G191)</f>
+        <v>0.6902974137931035</v>
       </c>
     </row>
     <row r="192" spans="2:8">
@@ -4662,14 +3826,14 @@
         <v>5</v>
       </c>
       <c r="F192">
-        <v>0.69989999999999997</v>
+        <v>0.79600000000000004</v>
       </c>
       <c r="G192">
-        <v>0.85419999999999996</v>
+        <v>0.87</v>
       </c>
       <c r="H192" s="23">
-        <f t="shared" si="24"/>
-        <v>0.76939010359693705</v>
+        <f t="shared" si="8"/>
+        <v>0.83135654261704683</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -4677,14 +3841,14 @@
         <v>7</v>
       </c>
       <c r="F193">
-        <v>0.52900000000000003</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="G193">
-        <v>0.48609999999999998</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="H193" s="23">
-        <f t="shared" si="24"/>
-        <v>0.50664348340065024</v>
+        <f t="shared" si="8"/>
+        <v>0.42565384615384616</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -4693,22 +3857,22 @@
     </row>
     <row r="195" spans="1:8">
       <c r="B195" s="27" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E195" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F195">
-        <f>AVERAGE(F175,F191)</f>
-        <v>0.60125000000000006</v>
+        <f t="shared" ref="F195:G197" si="9">AVERAGE(F175,F191)</f>
+        <v>0.66249999999999998</v>
       </c>
       <c r="G195">
-        <f>AVERAGE(G175,G191)</f>
-        <v>0.68345</v>
+        <f t="shared" si="9"/>
+        <v>0.71950000000000003</v>
       </c>
       <c r="H195" s="23">
-        <f t="shared" ref="H195:H197" si="25">2*F195*G195/(F195+G195)</f>
-        <v>0.63972026543161842</v>
+        <f t="shared" ref="H195:H197" si="10">2*F195*G195/(F195+G195)</f>
+        <v>0.68982452966714902</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -4716,16 +3880,16 @@
         <v>5</v>
       </c>
       <c r="F196">
-        <f>AVERAGE(F176,F192)</f>
-        <v>0.58314999999999995</v>
+        <f t="shared" si="9"/>
+        <v>0.64100000000000001</v>
       </c>
       <c r="G196">
-        <f>AVERAGE(G176,G192)</f>
-        <v>0.72859999999999991</v>
+        <f t="shared" si="9"/>
+        <v>0.74199999999999999</v>
       </c>
       <c r="H196" s="23">
-        <f t="shared" si="25"/>
-        <v>0.64781107680579364</v>
+        <f t="shared" si="10"/>
+        <v>0.68781200289226319</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -4733,16 +3897,16 @@
         <v>7</v>
       </c>
       <c r="F197">
-        <f>AVERAGE(F177,F193)</f>
-        <v>0.57719999999999994</v>
+        <f t="shared" si="9"/>
+        <v>0.54350000000000009</v>
       </c>
       <c r="G197">
-        <f>AVERAGE(G177,G193)</f>
-        <v>0.51829999999999998</v>
+        <f t="shared" si="9"/>
+        <v>0.42899999999999999</v>
       </c>
       <c r="H197" s="23">
-        <f t="shared" si="25"/>
-        <v>0.54616660885440438</v>
+        <f t="shared" si="10"/>
+        <v>0.47950951156812344</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -4770,14 +3934,14 @@
         <v>3</v>
       </c>
       <c r="F201">
-        <v>0.58320000000000005</v>
+        <v>0.66900000000000004</v>
       </c>
       <c r="G201">
-        <v>0.64449999999999996</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="H201" s="23">
-        <f t="shared" ref="H201:H203" si="26">2*F201*G201/(F201+G201)</f>
-        <v>0.6123196220575059</v>
+        <f t="shared" ref="H201:H203" si="11">2*F201*G201/(F201+G201)</f>
+        <v>0.6499738662567256</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -4788,14 +3952,14 @@
         <v>5</v>
       </c>
       <c r="F202">
-        <v>0.4955</v>
+        <v>0.499</v>
       </c>
       <c r="G202">
-        <v>0.58579999999999999</v>
+        <v>0.627</v>
       </c>
       <c r="H202" s="23">
-        <f t="shared" si="26"/>
-        <v>0.53687949690187742</v>
+        <f t="shared" si="11"/>
+        <v>0.55572468916518658</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -4803,14 +3967,14 @@
         <v>7</v>
       </c>
       <c r="F203">
-        <v>0.4335</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="G203">
-        <v>0.47399999999999998</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="H203" s="23">
-        <f t="shared" si="26"/>
-        <v>0.45284628099173552</v>
+        <f t="shared" si="11"/>
+        <v>0.49975249500998004</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -4827,14 +3991,14 @@
         <v>3</v>
       </c>
       <c r="F205">
-        <v>0.61429999999999996</v>
+        <v>0.67300000000000004</v>
       </c>
       <c r="G205">
-        <v>0.66039999999999999</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="H205" s="23">
-        <f t="shared" ref="H205:H207" si="27">2*F205*G205/(F205+G205)</f>
-        <v>0.63651638816976541</v>
+        <f t="shared" ref="H205:H207" si="12">2*F205*G205/(F205+G205)</f>
+        <v>0.66592642642642641</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -4845,14 +4009,14 @@
         <v>5</v>
       </c>
       <c r="F206">
-        <v>0.50660000000000005</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="G206">
-        <v>0.63660000000000005</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="H206" s="23">
-        <f t="shared" si="27"/>
-        <v>0.56420846745976205</v>
+        <f t="shared" si="12"/>
+        <v>0.57676857386848845</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -4860,14 +4024,14 @@
         <v>7</v>
       </c>
       <c r="F207">
-        <v>0.47699999999999998</v>
+        <v>0.61</v>
       </c>
       <c r="G207">
-        <v>0.5806</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="H207" s="23">
-        <f t="shared" si="27"/>
-        <v>0.52372579425113464</v>
+        <f t="shared" si="12"/>
+        <v>0.57117698343504797</v>
       </c>
     </row>
     <row r="209" spans="2:8">
@@ -4884,14 +4048,14 @@
         <v>3</v>
       </c>
       <c r="F209">
-        <v>0.5696</v>
+        <v>0.66300000000000003</v>
       </c>
       <c r="G209">
-        <v>0.65949999999999998</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="H209" s="23">
-        <f t="shared" ref="H209:H211" si="28">2*F209*G209/(F209+G209)</f>
-        <v>0.61126222439183142</v>
+        <f t="shared" ref="H209:H211" si="13">2*F209*G209/(F209+G209)</f>
+        <v>0.66943689320388355</v>
       </c>
     </row>
     <row r="210" spans="2:8">
@@ -4902,14 +4066,14 @@
         <v>5</v>
       </c>
       <c r="F210">
-        <v>0.84550000000000003</v>
+        <v>0.82099999999999995</v>
       </c>
       <c r="G210">
-        <v>0.9546</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="H210" s="23">
-        <f t="shared" si="28"/>
-        <v>0.89674384756402425</v>
+        <f t="shared" si="13"/>
+        <v>0.87864665911664763</v>
       </c>
     </row>
     <row r="211" spans="2:8">
@@ -4917,14 +4081,14 @@
         <v>7</v>
       </c>
       <c r="F211">
-        <v>0.4829</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="G211">
-        <v>0.49030000000000001</v>
+        <v>0.501</v>
       </c>
       <c r="H211" s="23">
-        <f t="shared" si="28"/>
-        <v>0.48657186600904234</v>
+        <f t="shared" si="13"/>
+        <v>0.54769954751131222</v>
       </c>
     </row>
     <row r="213" spans="2:8">
@@ -4941,14 +4105,14 @@
         <v>3</v>
       </c>
       <c r="F213">
-        <v>0.59899999999999998</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="G213">
-        <v>0.71760000000000002</v>
+        <v>0.72899999999999998</v>
       </c>
       <c r="H213" s="23">
-        <f t="shared" ref="H213:H215" si="29">2*F213*G213/(F213+G213)</f>
-        <v>0.65295822573294848</v>
+        <f t="shared" ref="H213:H215" si="14">2*F213*G213/(F213+G213)</f>
+        <v>0.70737711864406783</v>
       </c>
     </row>
     <row r="214" spans="2:8">
@@ -4959,14 +4123,14 @@
         <v>5</v>
       </c>
       <c r="F214">
-        <v>0.86250000000000004</v>
+        <v>0.84299999999999997</v>
       </c>
       <c r="G214">
-        <v>0.96499999999999997</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="H214" s="23">
-        <f t="shared" si="29"/>
-        <v>0.91087551299589598</v>
+        <f t="shared" si="14"/>
+        <v>0.89286495535714283</v>
       </c>
     </row>
     <row r="215" spans="2:8">
@@ -4974,14 +4138,14 @@
         <v>7</v>
       </c>
       <c r="F215">
-        <v>0.6159</v>
+        <v>0.72899999999999998</v>
       </c>
       <c r="G215">
-        <v>0.59850000000000003</v>
+        <v>0.626</v>
       </c>
       <c r="H215" s="23">
-        <f t="shared" si="29"/>
-        <v>0.60707534584980249</v>
+        <f t="shared" si="14"/>
+        <v>0.67358523985239849</v>
       </c>
     </row>
     <row r="217" spans="2:8">
@@ -4998,14 +4162,14 @@
         <v>3</v>
       </c>
       <c r="F217">
-        <v>0.45590000000000003</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="G217">
-        <v>0.65529999999999999</v>
+        <v>0.72399999999999998</v>
       </c>
       <c r="H217" s="23">
-        <f t="shared" ref="H217:H219" si="30">2*F217*G217/(F217+G217)</f>
-        <v>0.53770926925845941</v>
+        <f t="shared" ref="H217:H219" si="15">2*F217*G217/(F217+G217)</f>
+        <v>0.65137993920972648</v>
       </c>
     </row>
     <row r="218" spans="2:8">
@@ -5016,14 +4180,14 @@
         <v>5</v>
       </c>
       <c r="F218">
-        <v>0.76880000000000004</v>
+        <v>0.84299999999999997</v>
       </c>
       <c r="G218">
-        <v>0.92649999999999999</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="H218" s="23">
-        <f t="shared" si="30"/>
-        <v>0.84031522444405127</v>
+        <f t="shared" si="15"/>
+        <v>0.86348958333333337</v>
       </c>
     </row>
     <row r="219" spans="2:8">
@@ -5031,14 +4195,14 @@
         <v>7</v>
       </c>
       <c r="F219">
-        <v>0.50270000000000004</v>
+        <v>0.6</v>
       </c>
       <c r="G219">
-        <v>0.53710000000000002</v>
+        <v>0.45</v>
       </c>
       <c r="H219" s="23">
-        <f t="shared" si="30"/>
-        <v>0.51933096749374885</v>
+        <f t="shared" si="15"/>
+        <v>0.51428571428571435</v>
       </c>
     </row>
     <row r="221" spans="2:8">
@@ -5055,14 +4219,14 @@
         <v>3</v>
       </c>
       <c r="F221">
-        <v>0.52339999999999998</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="G221">
-        <v>0.67500000000000004</v>
+        <v>0.72399999999999998</v>
       </c>
       <c r="H221" s="23">
-        <f t="shared" ref="H221:H223" si="31">2*F221*G221/(F221+G221)</f>
-        <v>0.58961114819759686</v>
+        <f t="shared" ref="H221:H223" si="16">2*F221*G221/(F221+G221)</f>
+        <v>0.67601767304860083</v>
       </c>
     </row>
     <row r="222" spans="2:8">
@@ -5073,14 +4237,14 @@
         <v>5</v>
       </c>
       <c r="F222">
-        <v>0.80020000000000002</v>
+        <v>0.876</v>
       </c>
       <c r="G222">
-        <v>0.93210000000000004</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="H222" s="23">
-        <f t="shared" si="31"/>
-        <v>0.86112846504647012</v>
+        <f t="shared" si="16"/>
+        <v>0.87849288560045524</v>
       </c>
     </row>
     <row r="223" spans="2:8">
@@ -5088,14 +4252,14 @@
         <v>7</v>
       </c>
       <c r="F223">
-        <v>0.56459999999999999</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="G223">
-        <v>0.53420000000000001</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="H223" s="23">
-        <f t="shared" si="31"/>
-        <v>0.54897946851110302</v>
+        <f t="shared" si="16"/>
+        <v>0.55759762308998306</v>
       </c>
     </row>
     <row r="225" spans="2:8">
@@ -5106,16 +4270,16 @@
         <v>3</v>
       </c>
       <c r="F225">
-        <f>AVERAGE(F213,F221)</f>
-        <v>0.56119999999999992</v>
+        <f t="shared" ref="F225:G227" si="17">AVERAGE(F213,F221)</f>
+        <v>0.66050000000000009</v>
       </c>
       <c r="G225">
-        <f>AVERAGE(G213,G221)</f>
-        <v>0.69630000000000003</v>
+        <f t="shared" si="17"/>
+        <v>0.72649999999999992</v>
       </c>
       <c r="H225" s="23">
-        <f t="shared" ref="H225:H227" si="32">2*F225*G225/(F225+G225)</f>
-        <v>0.6214927395626243</v>
+        <f t="shared" ref="H225:H227" si="18">2*F225*G225/(F225+G225)</f>
+        <v>0.69192970439798129</v>
       </c>
     </row>
     <row r="226" spans="2:8">
@@ -5123,16 +4287,16 @@
         <v>5</v>
       </c>
       <c r="F226">
-        <f>AVERAGE(F214,F222)</f>
-        <v>0.83135000000000003</v>
+        <f t="shared" si="17"/>
+        <v>0.85949999999999993</v>
       </c>
       <c r="G226">
-        <f>AVERAGE(G214,G222)</f>
-        <v>0.94855</v>
+        <f t="shared" si="17"/>
+        <v>0.91500000000000004</v>
       </c>
       <c r="H226" s="23">
-        <f t="shared" si="32"/>
-        <v>0.88609140120231478</v>
+        <f t="shared" si="18"/>
+        <v>0.88638207945900249</v>
       </c>
     </row>
     <row r="227" spans="2:8">
@@ -5140,16 +4304,58 @@
         <v>7</v>
       </c>
       <c r="F227">
-        <f>AVERAGE(F215,F223)</f>
-        <v>0.59024999999999994</v>
+        <f t="shared" si="17"/>
+        <v>0.72699999999999998</v>
       </c>
       <c r="G227">
-        <f>AVERAGE(G215,G223)</f>
-        <v>0.56635000000000002</v>
+        <f t="shared" si="17"/>
+        <v>0.53949999999999998</v>
       </c>
       <c r="H227" s="23">
-        <f t="shared" si="32"/>
-        <v>0.57805306501815668</v>
+        <f t="shared" si="18"/>
+        <v>0.6193707066719305</v>
+      </c>
+    </row>
+    <row r="231" spans="2:8">
+      <c r="F231">
+        <f>AVERAGE(F225,F195,F165)</f>
+        <v>0.66133333333333333</v>
+      </c>
+      <c r="G231">
+        <f>AVERAGE(G225,G195,G165)</f>
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="H231">
+        <f>AVERAGE(H225,H195,H165)</f>
+        <v>0.69437593787019491</v>
+      </c>
+    </row>
+    <row r="232" spans="2:8">
+      <c r="F232">
+        <f t="shared" ref="F232:H232" si="19">AVERAGE(F226,F196,F166)</f>
+        <v>0.77066666666666661</v>
+      </c>
+      <c r="G232">
+        <f t="shared" si="19"/>
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="H232">
+        <f t="shared" si="19"/>
+        <v>0.81004032991596253</v>
+      </c>
+    </row>
+    <row r="233" spans="2:8">
+      <c r="F233">
+        <f t="shared" ref="F233:H233" si="20">AVERAGE(F227,F197,F167)</f>
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="G233">
+        <f t="shared" si="20"/>
+        <v>0.50216666666666665</v>
+      </c>
+      <c r="H233">
+        <f t="shared" si="20"/>
+        <v>0.57211835657506749</v>
       </c>
     </row>
   </sheetData>
@@ -5168,7 +4374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
